--- a/files/xlsx/Пассажиропотоки по городам 2020.xlsx
+++ b/files/xlsx/Пассажиропотоки по городам 2020.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotlyarov_m\Documents\MK\Dates\2024\202405\20240504\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotlyarov_m\Documents\MK\Dates\2024\202405\20240504\MAL\files\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1434CC6-807D-4B9B-838C-7A2BD130BA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5152477F-4C1E-44C4-A35B-A3BBB5A69A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20" sheetId="6" r:id="rId1"/>
+    <sheet name="Пассажиропоток" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -826,10 +826,10 @@
     <t>Аэропорт</t>
   </si>
   <si>
-    <t>Пассажиры 2020</t>
-  </si>
-  <si>
-    <t>Груз 2020</t>
+    <t>Пассажиропоток</t>
+  </si>
+  <si>
+    <t>Грузопоток</t>
   </si>
 </sst>
 </file>
@@ -1190,13 +1190,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1206,6 +1199,13 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1225,12 +1225,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79545BBC-912E-47E3-9057-F0F08FA4796D}" name="Таблица2" displayName="Таблица2" ref="A1:C267" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79545BBC-912E-47E3-9057-F0F08FA4796D}" name="Таблица2" displayName="Таблица2" ref="A1:C267" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C267" xr:uid="{79545BBC-912E-47E3-9057-F0F08FA4796D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F4474615-466D-4115-9F06-AC7D3FAEE127}" name="Аэропорт" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CEC13718-43A6-4C43-898D-B020FFA777A5}" name="Пассажиры 2020" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{47704F98-257F-46BD-BF47-E365AAB24B9D}" name="Груз 2020" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{CEC13718-43A6-4C43-898D-B020FFA777A5}" name="Пассажиропоток" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{47704F98-257F-46BD-BF47-E365AAB24B9D}" name="Грузопоток" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:C267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
